--- a/src/MASTER.xlsx
+++ b/src/MASTER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="19">
   <si>
     <t>Date_Time</t>
   </si>
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C202"/>
+  <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2660,6 +2660,17 @@
         <v>18</v>
       </c>
     </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45041.89611111111</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
